--- a/Competitors_Metrics.xlsx
+++ b/Competitors_Metrics.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7282fa2bebbc7329/Documents/Training/Carnegie_Mellon_University/Courses/Mini_3/Business/Simulation/Analysis/Competitors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly266e\Documents\Training\CMU\Master\Spring 2023 Mini 3\Business\Simulation\Comparison\Comparison_Analysis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="747" documentId="8_{BB7CF6C4-63CA-4743-A61C-1361662A330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B958A1BA-8692-4C80-BE60-C62636480262}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A06A6147-1BB6-42EC-9185-F56C080EE9DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Other" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="538">
   <si>
     <t>JAPAN</t>
   </si>
@@ -1492,16 +1491,208 @@
   <si>
     <t>Green P2</t>
   </si>
+  <si>
+    <t>Sales Revenue</t>
+  </si>
+  <si>
+    <t>Sales_Revenue_Total</t>
+  </si>
+  <si>
+    <t>SP1_1_J</t>
+  </si>
+  <si>
+    <t>SP1_1_M</t>
+  </si>
+  <si>
+    <t>SP1_1_C</t>
+  </si>
+  <si>
+    <t>SP1_1_UK</t>
+  </si>
+  <si>
+    <t>SP1_1_G</t>
+  </si>
+  <si>
+    <t>SP1_1_US</t>
+  </si>
+  <si>
+    <t>SP1_2_J</t>
+  </si>
+  <si>
+    <t>SP1_2_M</t>
+  </si>
+  <si>
+    <t>SP1_2_C</t>
+  </si>
+  <si>
+    <t>SP1_2_UK</t>
+  </si>
+  <si>
+    <t>SP1_2_G</t>
+  </si>
+  <si>
+    <t>SP1_2_US</t>
+  </si>
+  <si>
+    <t>SP1_3_J</t>
+  </si>
+  <si>
+    <t>SP1_3_M</t>
+  </si>
+  <si>
+    <t>SP1_3_C</t>
+  </si>
+  <si>
+    <t>SP1_3_UK</t>
+  </si>
+  <si>
+    <t>SP1_3_G</t>
+  </si>
+  <si>
+    <t>SP1_3_US</t>
+  </si>
+  <si>
+    <t>SP1_4_J</t>
+  </si>
+  <si>
+    <t>SP1_4_M</t>
+  </si>
+  <si>
+    <t>SP1_4_C</t>
+  </si>
+  <si>
+    <t>SP1_4_UK</t>
+  </si>
+  <si>
+    <t>SP1_4_G</t>
+  </si>
+  <si>
+    <t>SP1_4_US</t>
+  </si>
+  <si>
+    <t>SP1_5_J</t>
+  </si>
+  <si>
+    <t>SP1_5_M</t>
+  </si>
+  <si>
+    <t>SP1_5_C</t>
+  </si>
+  <si>
+    <t>SP1_5_UK</t>
+  </si>
+  <si>
+    <t>SP1_5_G</t>
+  </si>
+  <si>
+    <t>SP1_5_US</t>
+  </si>
+  <si>
+    <t>SP2_1_J</t>
+  </si>
+  <si>
+    <t>SP2_1_M</t>
+  </si>
+  <si>
+    <t>SP2_1_C</t>
+  </si>
+  <si>
+    <t>SP2_1_UK</t>
+  </si>
+  <si>
+    <t>SP2_1_G</t>
+  </si>
+  <si>
+    <t>SP2_1_US</t>
+  </si>
+  <si>
+    <t>SP2_2_J</t>
+  </si>
+  <si>
+    <t>SP2_2_M</t>
+  </si>
+  <si>
+    <t>SP2_2_C</t>
+  </si>
+  <si>
+    <t>SP2_2_UK</t>
+  </si>
+  <si>
+    <t>SP2_2_G</t>
+  </si>
+  <si>
+    <t>SP2_2_US</t>
+  </si>
+  <si>
+    <t>SP2_3_J</t>
+  </si>
+  <si>
+    <t>SP2_3_M</t>
+  </si>
+  <si>
+    <t>SP2_3_C</t>
+  </si>
+  <si>
+    <t>SP2_3_UK</t>
+  </si>
+  <si>
+    <t>SP2_3_G</t>
+  </si>
+  <si>
+    <t>SP2_3_US</t>
+  </si>
+  <si>
+    <t>SP2_4_J</t>
+  </si>
+  <si>
+    <t>SP2_4_M</t>
+  </si>
+  <si>
+    <t>SP2_4_C</t>
+  </si>
+  <si>
+    <t>SP2_4_UK</t>
+  </si>
+  <si>
+    <t>SP2_4_G</t>
+  </si>
+  <si>
+    <t>SP2_4_US</t>
+  </si>
+  <si>
+    <t>SP2_5_J</t>
+  </si>
+  <si>
+    <t>SP2_5_M</t>
+  </si>
+  <si>
+    <t>SP2_5_C</t>
+  </si>
+  <si>
+    <t>SP2_5_UK</t>
+  </si>
+  <si>
+    <t>SP2_5_G</t>
+  </si>
+  <si>
+    <t>SP2_5_US</t>
+  </si>
+  <si>
+    <t>Sales_P1</t>
+  </si>
+  <si>
+    <t>Sales_P2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,6 +1748,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1726,7 +1925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1770,19 +1969,31 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,16 +2014,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1821,7 +2023,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_INTL-FOR (2)" xfId="1" xr:uid="{62078E3D-F77F-4A66-9C98-9FCBF03B1CB1}"/>
+    <cellStyle name="Normal_INTL-FOR (2)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1837,11 +2039,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Data_US2"/>
       <sheetName val="Data_G2"/>
@@ -1917,7 +2116,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -1965,7 +2166,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -1995,7 +2198,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2051,7 +2256,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2099,7 +2306,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2129,7 +2338,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2193,7 +2404,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2241,7 +2454,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2271,7 +2486,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2335,7 +2552,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2383,7 +2602,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2413,7 +2634,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2477,7 +2700,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2525,7 +2750,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2555,7 +2782,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2619,7 +2848,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2667,7 +2898,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2697,7 +2930,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2769,7 +3004,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2817,7 +3054,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2847,7 +3086,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -2911,7 +3152,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2959,7 +3202,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -2989,7 +3234,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -3053,7 +3300,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3101,7 +3350,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -3131,7 +3382,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -3195,7 +3448,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3243,7 +3498,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -3273,7 +3530,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -3337,7 +3596,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3385,7 +3646,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -3415,7 +3678,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -3479,7 +3744,9 @@
           <cell r="A3" t="str">
             <v>Regression Statistics</v>
           </cell>
-          <cell r="B3"/>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3527,7 +3794,9 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
           <cell r="B11" t="str">
             <v>df</v>
           </cell>
@@ -3557,7 +3826,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>Coefficients</v>
           </cell>
@@ -3916,11 +4187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24B0665-FAA2-4C6B-B2DB-F57063BD1A61}">
-  <dimension ref="A1:CC8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="CB24" sqref="CB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3929,7 +4200,7 @@
     <col min="2" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:141">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4173,8 +4444,188 @@
       <c r="CC1" s="15" t="s">
         <v>364</v>
       </c>
+      <c r="CD1" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="CJ1" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="CK1" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="CL1" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="CM1" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="CO1" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="CP1" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="CQ1" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="CR1" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="CS1" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="CT1" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="CU1" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="CY1" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="CZ1" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="DA1" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="DB1" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="DC1" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="DD1" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="DE1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="DF1" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="DG1" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="DH1" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="DI1" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="DJ1" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="DK1" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="DL1" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="DM1" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="DN1" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="DO1" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="DP1" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="DQ1" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="DR1" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="DS1" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="DT1" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="DU1" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="DV1" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="DW1" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="DX1" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="DY1" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="DZ1" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="EA1" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB1" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC1" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="ED1" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="EE1" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="EF1" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="EG1" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="EH1" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="EI1" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="EJ1" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="EK1" s="15" t="s">
+        <v>535</v>
+      </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:141">
       <c r="A2">
         <v>58</v>
       </c>
@@ -4418,8 +4869,188 @@
       <c r="CC2">
         <v>100</v>
       </c>
+      <c r="CD2">
+        <v>20</v>
+      </c>
+      <c r="CE2">
+        <v>20</v>
+      </c>
+      <c r="CF2">
+        <v>20</v>
+      </c>
+      <c r="CG2">
+        <v>20</v>
+      </c>
+      <c r="CH2">
+        <v>20</v>
+      </c>
+      <c r="CI2">
+        <v>20</v>
+      </c>
+      <c r="CJ2">
+        <v>20</v>
+      </c>
+      <c r="CK2">
+        <v>20</v>
+      </c>
+      <c r="CL2">
+        <v>20</v>
+      </c>
+      <c r="CM2">
+        <v>20</v>
+      </c>
+      <c r="CN2">
+        <v>20</v>
+      </c>
+      <c r="CO2">
+        <v>20</v>
+      </c>
+      <c r="CP2">
+        <v>20</v>
+      </c>
+      <c r="CQ2">
+        <v>20</v>
+      </c>
+      <c r="CR2">
+        <v>20</v>
+      </c>
+      <c r="CS2">
+        <v>20</v>
+      </c>
+      <c r="CT2">
+        <v>20</v>
+      </c>
+      <c r="CU2">
+        <v>20</v>
+      </c>
+      <c r="CV2">
+        <v>20</v>
+      </c>
+      <c r="CW2">
+        <v>20</v>
+      </c>
+      <c r="CX2">
+        <v>20</v>
+      </c>
+      <c r="CY2">
+        <v>20</v>
+      </c>
+      <c r="CZ2">
+        <v>20</v>
+      </c>
+      <c r="DA2">
+        <v>20</v>
+      </c>
+      <c r="DB2">
+        <v>20</v>
+      </c>
+      <c r="DC2">
+        <v>20</v>
+      </c>
+      <c r="DD2">
+        <v>20</v>
+      </c>
+      <c r="DE2">
+        <v>20</v>
+      </c>
+      <c r="DF2">
+        <v>20</v>
+      </c>
+      <c r="DG2">
+        <v>20</v>
+      </c>
+      <c r="DH2">
+        <v>20</v>
+      </c>
+      <c r="DI2">
+        <v>20</v>
+      </c>
+      <c r="DJ2">
+        <v>20</v>
+      </c>
+      <c r="DK2">
+        <v>20</v>
+      </c>
+      <c r="DL2">
+        <v>20</v>
+      </c>
+      <c r="DM2">
+        <v>20</v>
+      </c>
+      <c r="DN2">
+        <v>20</v>
+      </c>
+      <c r="DO2">
+        <v>20</v>
+      </c>
+      <c r="DP2">
+        <v>20</v>
+      </c>
+      <c r="DQ2">
+        <v>20</v>
+      </c>
+      <c r="DR2">
+        <v>20</v>
+      </c>
+      <c r="DS2">
+        <v>20</v>
+      </c>
+      <c r="DT2">
+        <v>20</v>
+      </c>
+      <c r="DU2">
+        <v>20</v>
+      </c>
+      <c r="DV2">
+        <v>20</v>
+      </c>
+      <c r="DW2">
+        <v>20</v>
+      </c>
+      <c r="DX2">
+        <v>20</v>
+      </c>
+      <c r="DY2">
+        <v>20</v>
+      </c>
+      <c r="DZ2">
+        <v>20</v>
+      </c>
+      <c r="EA2">
+        <v>20</v>
+      </c>
+      <c r="EB2">
+        <v>20</v>
+      </c>
+      <c r="EC2">
+        <v>20</v>
+      </c>
+      <c r="ED2">
+        <v>20</v>
+      </c>
+      <c r="EE2">
+        <v>20</v>
+      </c>
+      <c r="EF2">
+        <v>20</v>
+      </c>
+      <c r="EG2">
+        <v>20</v>
+      </c>
+      <c r="EH2">
+        <v>20</v>
+      </c>
+      <c r="EI2">
+        <v>20</v>
+      </c>
+      <c r="EJ2">
+        <v>20</v>
+      </c>
+      <c r="EK2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:141">
       <c r="A3">
         <v>59</v>
       </c>
@@ -4663,8 +5294,188 @@
       <c r="CC3">
         <v>100</v>
       </c>
+      <c r="CD3">
+        <v>20</v>
+      </c>
+      <c r="CE3">
+        <v>20</v>
+      </c>
+      <c r="CF3">
+        <v>20</v>
+      </c>
+      <c r="CG3">
+        <v>20</v>
+      </c>
+      <c r="CH3">
+        <v>20</v>
+      </c>
+      <c r="CI3">
+        <v>20</v>
+      </c>
+      <c r="CJ3">
+        <v>20</v>
+      </c>
+      <c r="CK3">
+        <v>20</v>
+      </c>
+      <c r="CL3">
+        <v>20</v>
+      </c>
+      <c r="CM3">
+        <v>20</v>
+      </c>
+      <c r="CN3">
+        <v>20</v>
+      </c>
+      <c r="CO3">
+        <v>20</v>
+      </c>
+      <c r="CP3">
+        <v>20</v>
+      </c>
+      <c r="CQ3">
+        <v>20</v>
+      </c>
+      <c r="CR3">
+        <v>20</v>
+      </c>
+      <c r="CS3">
+        <v>20</v>
+      </c>
+      <c r="CT3">
+        <v>20</v>
+      </c>
+      <c r="CU3">
+        <v>20</v>
+      </c>
+      <c r="CV3">
+        <v>20</v>
+      </c>
+      <c r="CW3">
+        <v>20</v>
+      </c>
+      <c r="CX3">
+        <v>20</v>
+      </c>
+      <c r="CY3">
+        <v>20</v>
+      </c>
+      <c r="CZ3">
+        <v>20</v>
+      </c>
+      <c r="DA3">
+        <v>20</v>
+      </c>
+      <c r="DB3">
+        <v>20</v>
+      </c>
+      <c r="DC3">
+        <v>20</v>
+      </c>
+      <c r="DD3">
+        <v>20</v>
+      </c>
+      <c r="DE3">
+        <v>20</v>
+      </c>
+      <c r="DF3">
+        <v>20</v>
+      </c>
+      <c r="DG3">
+        <v>20</v>
+      </c>
+      <c r="DH3">
+        <v>20</v>
+      </c>
+      <c r="DI3">
+        <v>20</v>
+      </c>
+      <c r="DJ3">
+        <v>20</v>
+      </c>
+      <c r="DK3">
+        <v>20</v>
+      </c>
+      <c r="DL3">
+        <v>20</v>
+      </c>
+      <c r="DM3">
+        <v>20</v>
+      </c>
+      <c r="DN3">
+        <v>20</v>
+      </c>
+      <c r="DO3">
+        <v>20</v>
+      </c>
+      <c r="DP3">
+        <v>20</v>
+      </c>
+      <c r="DQ3">
+        <v>20</v>
+      </c>
+      <c r="DR3">
+        <v>20</v>
+      </c>
+      <c r="DS3">
+        <v>20</v>
+      </c>
+      <c r="DT3">
+        <v>20</v>
+      </c>
+      <c r="DU3">
+        <v>20</v>
+      </c>
+      <c r="DV3">
+        <v>20</v>
+      </c>
+      <c r="DW3">
+        <v>20</v>
+      </c>
+      <c r="DX3">
+        <v>20</v>
+      </c>
+      <c r="DY3">
+        <v>20</v>
+      </c>
+      <c r="DZ3">
+        <v>20</v>
+      </c>
+      <c r="EA3">
+        <v>20</v>
+      </c>
+      <c r="EB3">
+        <v>20</v>
+      </c>
+      <c r="EC3">
+        <v>20</v>
+      </c>
+      <c r="ED3">
+        <v>20</v>
+      </c>
+      <c r="EE3">
+        <v>20</v>
+      </c>
+      <c r="EF3">
+        <v>20</v>
+      </c>
+      <c r="EG3">
+        <v>20</v>
+      </c>
+      <c r="EH3">
+        <v>20</v>
+      </c>
+      <c r="EI3">
+        <v>20</v>
+      </c>
+      <c r="EJ3">
+        <v>20</v>
+      </c>
+      <c r="EK3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:141">
       <c r="A4">
         <v>60</v>
       </c>
@@ -4908,8 +5719,188 @@
       <c r="CC4">
         <v>100</v>
       </c>
+      <c r="CD4">
+        <v>20</v>
+      </c>
+      <c r="CE4">
+        <v>20</v>
+      </c>
+      <c r="CF4">
+        <v>20</v>
+      </c>
+      <c r="CG4">
+        <v>20</v>
+      </c>
+      <c r="CH4">
+        <v>20</v>
+      </c>
+      <c r="CI4">
+        <v>20</v>
+      </c>
+      <c r="CJ4">
+        <v>20</v>
+      </c>
+      <c r="CK4">
+        <v>20</v>
+      </c>
+      <c r="CL4">
+        <v>20</v>
+      </c>
+      <c r="CM4">
+        <v>20</v>
+      </c>
+      <c r="CN4">
+        <v>20</v>
+      </c>
+      <c r="CO4">
+        <v>20</v>
+      </c>
+      <c r="CP4">
+        <v>20</v>
+      </c>
+      <c r="CQ4">
+        <v>20</v>
+      </c>
+      <c r="CR4">
+        <v>20</v>
+      </c>
+      <c r="CS4">
+        <v>20</v>
+      </c>
+      <c r="CT4">
+        <v>20</v>
+      </c>
+      <c r="CU4">
+        <v>20</v>
+      </c>
+      <c r="CV4">
+        <v>20</v>
+      </c>
+      <c r="CW4">
+        <v>20</v>
+      </c>
+      <c r="CX4">
+        <v>20</v>
+      </c>
+      <c r="CY4">
+        <v>20</v>
+      </c>
+      <c r="CZ4">
+        <v>20</v>
+      </c>
+      <c r="DA4">
+        <v>20</v>
+      </c>
+      <c r="DB4">
+        <v>20</v>
+      </c>
+      <c r="DC4">
+        <v>20</v>
+      </c>
+      <c r="DD4">
+        <v>20</v>
+      </c>
+      <c r="DE4">
+        <v>20</v>
+      </c>
+      <c r="DF4">
+        <v>20</v>
+      </c>
+      <c r="DG4">
+        <v>20</v>
+      </c>
+      <c r="DH4">
+        <v>20</v>
+      </c>
+      <c r="DI4">
+        <v>20</v>
+      </c>
+      <c r="DJ4">
+        <v>20</v>
+      </c>
+      <c r="DK4">
+        <v>20</v>
+      </c>
+      <c r="DL4">
+        <v>20</v>
+      </c>
+      <c r="DM4">
+        <v>20</v>
+      </c>
+      <c r="DN4">
+        <v>20</v>
+      </c>
+      <c r="DO4">
+        <v>20</v>
+      </c>
+      <c r="DP4">
+        <v>20</v>
+      </c>
+      <c r="DQ4">
+        <v>20</v>
+      </c>
+      <c r="DR4">
+        <v>20</v>
+      </c>
+      <c r="DS4">
+        <v>20</v>
+      </c>
+      <c r="DT4">
+        <v>20</v>
+      </c>
+      <c r="DU4">
+        <v>20</v>
+      </c>
+      <c r="DV4">
+        <v>20</v>
+      </c>
+      <c r="DW4">
+        <v>20</v>
+      </c>
+      <c r="DX4">
+        <v>20</v>
+      </c>
+      <c r="DY4">
+        <v>20</v>
+      </c>
+      <c r="DZ4">
+        <v>20</v>
+      </c>
+      <c r="EA4">
+        <v>20</v>
+      </c>
+      <c r="EB4">
+        <v>20</v>
+      </c>
+      <c r="EC4">
+        <v>20</v>
+      </c>
+      <c r="ED4">
+        <v>20</v>
+      </c>
+      <c r="EE4">
+        <v>20</v>
+      </c>
+      <c r="EF4">
+        <v>20</v>
+      </c>
+      <c r="EG4">
+        <v>20</v>
+      </c>
+      <c r="EH4">
+        <v>20</v>
+      </c>
+      <c r="EI4">
+        <v>20</v>
+      </c>
+      <c r="EJ4">
+        <v>20</v>
+      </c>
+      <c r="EK4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:141">
       <c r="A5">
         <v>61</v>
       </c>
@@ -5153,8 +6144,188 @@
       <c r="CC5">
         <v>99.502487562189074</v>
       </c>
+      <c r="CD5" s="30">
+        <v>19.78298693141075</v>
+      </c>
+      <c r="CE5" s="30">
+        <v>19.650541533700803</v>
+      </c>
+      <c r="CF5" s="30">
+        <v>20.013091000385558</v>
+      </c>
+      <c r="CG5" s="30">
+        <v>18.838780234102302</v>
+      </c>
+      <c r="CH5" s="30">
+        <v>16.625812367345301</v>
+      </c>
+      <c r="CI5" s="30">
+        <v>18.152995996623762</v>
+      </c>
+      <c r="CJ5" s="30">
+        <v>20.802181248158668</v>
+      </c>
+      <c r="CK5" s="30">
+        <v>21.001958224543081</v>
+      </c>
+      <c r="CL5" s="30">
+        <v>21.986604140701356</v>
+      </c>
+      <c r="CM5" s="30">
+        <v>21.601631397830012</v>
+      </c>
+      <c r="CN5" s="30">
+        <v>21.814369266851024</v>
+      </c>
+      <c r="CO5" s="30">
+        <v>23.18370616136151</v>
+      </c>
+      <c r="CP5" s="30">
+        <v>18.769907224689682</v>
+      </c>
+      <c r="CQ5" s="30">
+        <v>18.140170196305963</v>
+      </c>
+      <c r="CR5" s="30">
+        <v>17.351852017897009</v>
+      </c>
+      <c r="CS5" s="30">
+        <v>20.043416232572866</v>
+      </c>
+      <c r="CT5" s="30">
+        <v>19.477819951267094</v>
+      </c>
+      <c r="CU5" s="30">
+        <v>17.949559406126461</v>
+      </c>
+      <c r="CV5" s="30">
+        <v>19.78298693141075</v>
+      </c>
+      <c r="CW5" s="30">
+        <v>23.030292041388641</v>
+      </c>
+      <c r="CX5" s="30">
+        <v>22.694952791700661</v>
+      </c>
+      <c r="CY5" s="30">
+        <v>20.677391901392532</v>
+      </c>
+      <c r="CZ5" s="30">
+        <v>20.555496699386637</v>
+      </c>
+      <c r="DA5" s="30">
+        <v>19.743639304004905</v>
+      </c>
+      <c r="DB5" s="30">
+        <v>20.861937664330146</v>
+      </c>
+      <c r="DC5" s="30">
+        <v>18.177038004061501</v>
+      </c>
+      <c r="DD5" s="30">
+        <v>17.953500049315412</v>
+      </c>
+      <c r="DE5" s="30">
+        <v>18.838780234102302</v>
+      </c>
+      <c r="DF5" s="30">
+        <v>21.526501715149944</v>
+      </c>
+      <c r="DG5" s="30">
+        <v>20.970099131883366</v>
+      </c>
+      <c r="DH5" s="30">
+        <v>20.011801291763014</v>
+      </c>
+      <c r="DI5" s="30">
+        <v>20.915121773900399</v>
+      </c>
+      <c r="DJ5" s="30">
+        <v>20.471319435452546</v>
+      </c>
+      <c r="DK5" s="30">
+        <v>19.339180921463353</v>
+      </c>
+      <c r="DL5" s="30">
+        <v>18.890506976844854</v>
+      </c>
+      <c r="DM5" s="30">
+        <v>19.462864453026953</v>
+      </c>
+      <c r="DN5" s="30">
+        <v>20.02583526034606</v>
+      </c>
+      <c r="DO5" s="30">
+        <v>19.345995395613713</v>
+      </c>
+      <c r="DP5" s="30">
+        <v>19.844250013873221</v>
+      </c>
+      <c r="DQ5" s="30">
+        <v>24.090866525159193</v>
+      </c>
+      <c r="DR5" s="30">
+        <v>21.385969631477892</v>
+      </c>
+      <c r="DS5" s="30">
+        <v>21.237662642603254</v>
+      </c>
+      <c r="DT5" s="30">
+        <v>20.428354995614384</v>
+      </c>
+      <c r="DU5" s="30">
+        <v>19.581515812431842</v>
+      </c>
+      <c r="DV5" s="30">
+        <v>18.850002774643464</v>
+      </c>
+      <c r="DW5" s="30">
+        <v>19.339180921463353</v>
+      </c>
+      <c r="DX5" s="30">
+        <v>20.554560998308737</v>
+      </c>
+      <c r="DY5" s="30">
+        <v>19.928290164390138</v>
+      </c>
+      <c r="DZ5" s="30">
+        <v>19.40196156606331</v>
+      </c>
+      <c r="EA5" s="30">
+        <v>21.121864776444927</v>
+      </c>
+      <c r="EB5" s="30">
+        <v>21.318510571391581</v>
+      </c>
+      <c r="EC5" s="30">
+        <v>18.615385815957048</v>
+      </c>
+      <c r="ED5" s="30">
+        <v>19.170322824006654</v>
+      </c>
+      <c r="EE5" s="30">
+        <v>19.28136326955827</v>
+      </c>
+      <c r="EF5" s="30">
+        <v>20.132046886213221</v>
+      </c>
+      <c r="EG5" s="30">
+        <v>19.035502241609105</v>
+      </c>
+      <c r="EH5" s="30">
+        <v>19.515917204639209</v>
+      </c>
+      <c r="EI5" s="30">
+        <v>18.615385815957048</v>
+      </c>
+      <c r="EJ5" s="30">
+        <v>19.998639569361863</v>
+      </c>
+      <c r="EK5" s="30">
+        <v>20.089819470421379</v>
+      </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:141">
       <c r="A6">
         <v>62</v>
       </c>
@@ -5398,8 +6569,188 @@
       <c r="CC6">
         <v>97.372707315345934</v>
       </c>
+      <c r="CD6" s="30">
+        <v>19.328608508956513</v>
+      </c>
+      <c r="CE6" s="30">
+        <v>18.75940867834445</v>
+      </c>
+      <c r="CF6" s="30">
+        <v>19.789656591522245</v>
+      </c>
+      <c r="CG6" s="30">
+        <v>17.262340036563071</v>
+      </c>
+      <c r="CH6" s="30">
+        <v>18.530299174815514</v>
+      </c>
+      <c r="CI6" s="30">
+        <v>17.857522811899013</v>
+      </c>
+      <c r="CJ6" s="30">
+        <v>18.6882470438693</v>
+      </c>
+      <c r="CK6" s="30">
+        <v>18.115051995742078</v>
+      </c>
+      <c r="CL6" s="30">
+        <v>20.97763958114226</v>
+      </c>
+      <c r="CM6" s="30">
+        <v>23.199684228020605</v>
+      </c>
+      <c r="CN6" s="30">
+        <v>19.704096841033842</v>
+      </c>
+      <c r="CO6" s="30">
+        <v>21.690740210319571</v>
+      </c>
+      <c r="CP6" s="30">
+        <v>20.822696247556582</v>
+      </c>
+      <c r="CQ6" s="30">
+        <v>19.568791217097182</v>
+      </c>
+      <c r="CR6" s="30">
+        <v>18.925419543646257</v>
+      </c>
+      <c r="CS6" s="30">
+        <v>20.665614093402027</v>
+      </c>
+      <c r="CT6" s="30">
+        <v>20.999672834345123</v>
+      </c>
+      <c r="CU6" s="30">
+        <v>20.169264972652996</v>
+      </c>
+      <c r="CV6" s="30">
+        <v>20.538832929213086</v>
+      </c>
+      <c r="CW6" s="30">
+        <v>22.396276210452058</v>
+      </c>
+      <c r="CX6" s="30">
+        <v>21.956193698843109</v>
+      </c>
+      <c r="CY6" s="30">
+        <v>19.521356157553598</v>
+      </c>
+      <c r="CZ6" s="30">
+        <v>18.973790395870445</v>
+      </c>
+      <c r="DA6" s="30">
+        <v>18.719805774922595</v>
+      </c>
+      <c r="DB6" s="30">
+        <v>20.621615270404511</v>
+      </c>
+      <c r="DC6" s="30">
+        <v>21.160471898364229</v>
+      </c>
+      <c r="DD6" s="30">
+        <v>18.35109058484613</v>
+      </c>
+      <c r="DE6" s="30">
+        <v>19.351005484460696</v>
+      </c>
+      <c r="DF6" s="30">
+        <v>21.792140753935072</v>
+      </c>
+      <c r="DG6" s="30">
+        <v>21.562666230205814</v>
+      </c>
+      <c r="DH6" s="30">
+        <v>19.96200272505709</v>
+      </c>
+      <c r="DI6" s="30">
+        <v>27.369546487849945</v>
+      </c>
+      <c r="DJ6" s="30">
+        <v>19.883296586330115</v>
+      </c>
+      <c r="DK6" s="30">
+        <v>17.8404315323689</v>
+      </c>
+      <c r="DL6" s="30">
+        <v>18.571077024034125</v>
+      </c>
+      <c r="DM6" s="30">
+        <v>20.20478997439427</v>
+      </c>
+      <c r="DN6" s="30">
+        <v>22.474684475490477</v>
+      </c>
+      <c r="DO6" s="30">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="30">
+        <v>22.799931574545727</v>
+      </c>
+      <c r="DQ6" s="30">
+        <v>28.536984516631321</v>
+      </c>
+      <c r="DR6" s="30">
+        <v>24.973656480505799</v>
+      </c>
+      <c r="DS6" s="30">
+        <v>21.717259153977821</v>
+      </c>
+      <c r="DT6" s="30">
+        <v>19.009512112430993</v>
+      </c>
+      <c r="DU6" s="30">
+        <v>23.786291871243652</v>
+      </c>
+      <c r="DV6" s="30">
+        <v>18.454915228464987</v>
+      </c>
+      <c r="DW6" s="30">
+        <v>19.470991523471326</v>
+      </c>
+      <c r="DX6" s="30">
+        <v>19.464232756825655</v>
+      </c>
+      <c r="DY6" s="30">
+        <v>19.20541266548085</v>
+      </c>
+      <c r="DZ6" s="30">
+        <v>17.639627191719921</v>
+      </c>
+      <c r="EA6" s="30">
+        <v>24.209805163125274</v>
+      </c>
+      <c r="EB6" s="30">
+        <v>18.778985782711167</v>
+      </c>
+      <c r="EC6" s="30">
+        <v>15.757842973696546</v>
+      </c>
+      <c r="ED6" s="30">
+        <v>16.30111747001256</v>
+      </c>
+      <c r="EE6" s="30">
+        <v>17.524425965380605</v>
+      </c>
+      <c r="EF6" s="30">
+        <v>20.914173495301512</v>
+      </c>
+      <c r="EG6" s="30">
+        <v>24.634356477781118</v>
+      </c>
+      <c r="EH6" s="30">
+        <v>20.082870827947996</v>
+      </c>
+      <c r="EI6" s="30">
+        <v>18.393749453831916</v>
+      </c>
+      <c r="EJ6" s="30">
+        <v>20.689916268621872</v>
+      </c>
+      <c r="EK6" s="30">
+        <v>21.348112240766437</v>
+      </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7" spans="1:141">
       <c r="A7">
         <v>63</v>
       </c>
@@ -5643,8 +6994,188 @@
       <c r="CC7">
         <v>96.899224806201545</v>
       </c>
+      <c r="CD7" s="30">
+        <v>19.421302056847324</v>
+      </c>
+      <c r="CE7" s="30">
+        <v>18.408354815255471</v>
+      </c>
+      <c r="CF7" s="30">
+        <v>18.736868125077248</v>
+      </c>
+      <c r="CG7" s="30">
+        <v>17.720388124643268</v>
+      </c>
+      <c r="CH7" s="30">
+        <v>18.142924771601578</v>
+      </c>
+      <c r="CI7" s="30">
+        <v>16.739808978926192</v>
+      </c>
+      <c r="CJ7" s="30">
+        <v>17.78913257522478</v>
+      </c>
+      <c r="CK7" s="30">
+        <v>17.213959944477491</v>
+      </c>
+      <c r="CL7" s="30">
+        <v>23.311751899071144</v>
+      </c>
+      <c r="CM7" s="30">
+        <v>24.02658637262282</v>
+      </c>
+      <c r="CN7" s="30">
+        <v>19.459969334906628</v>
+      </c>
+      <c r="CO7" s="30">
+        <v>21.937079342588074</v>
+      </c>
+      <c r="CP7" s="30">
+        <v>20.393462666219449</v>
+      </c>
+      <c r="CQ7" s="30">
+        <v>18.875008262277742</v>
+      </c>
+      <c r="CR7" s="30">
+        <v>18.407917629274692</v>
+      </c>
+      <c r="CS7" s="30">
+        <v>19.679623456228441</v>
+      </c>
+      <c r="CT7" s="30">
+        <v>19.749309328830133</v>
+      </c>
+      <c r="CU7" s="30">
+        <v>19.19955620016442</v>
+      </c>
+      <c r="CV7" s="30">
+        <v>20.721303138829079</v>
+      </c>
+      <c r="CW7" s="30">
+        <v>22.543459580937274</v>
+      </c>
+      <c r="CX7" s="30">
+        <v>21.044275215576658</v>
+      </c>
+      <c r="CY7" s="30">
+        <v>19.543548213650539</v>
+      </c>
+      <c r="CZ7" s="30">
+        <v>20.692932190575782</v>
+      </c>
+      <c r="DA7" s="30">
+        <v>20.909522313640831</v>
+      </c>
+      <c r="DB7" s="30">
+        <v>21.674799562879365</v>
+      </c>
+      <c r="DC7" s="30">
+        <v>22.959217397052019</v>
+      </c>
+      <c r="DD7" s="30">
+        <v>18.499187131000255</v>
+      </c>
+      <c r="DE7" s="30">
+        <v>19.029853832854933</v>
+      </c>
+      <c r="DF7" s="30">
+        <v>21.954864374085879</v>
+      </c>
+      <c r="DG7" s="30">
+        <v>21.214033164680487</v>
+      </c>
+      <c r="DH7" s="30">
+        <v>18.866473113476761</v>
+      </c>
+      <c r="DI7" s="30">
+        <v>25.185534955409246</v>
+      </c>
+      <c r="DJ7" s="30">
+        <v>21.545418550857523</v>
+      </c>
+      <c r="DK7" s="30">
+        <v>16.988242566900865</v>
+      </c>
+      <c r="DL7" s="30">
+        <v>16.596953146119343</v>
+      </c>
+      <c r="DM7" s="30">
+        <v>18.369574913096095</v>
+      </c>
+      <c r="DN7" s="30">
+        <v>18.829871708975407</v>
+      </c>
+      <c r="DO7" s="30">
+        <v>5.5727305934445805</v>
+      </c>
+      <c r="DP7" s="30">
+        <v>21.164065267676662</v>
+      </c>
+      <c r="DQ7" s="30">
+        <v>26.177427472052816</v>
+      </c>
+      <c r="DR7" s="30">
+        <v>21.522438645803962</v>
+      </c>
+      <c r="DS7" s="30">
+        <v>20.657900167350757</v>
+      </c>
+      <c r="DT7" s="30">
+        <v>19.685351993846002</v>
+      </c>
+      <c r="DU7" s="30">
+        <v>21.821405343763082</v>
+      </c>
+      <c r="DV7" s="30">
+        <v>22.388355179527782</v>
+      </c>
+      <c r="DW7" s="30">
+        <v>20.381532072391234</v>
+      </c>
+      <c r="DX7" s="30">
+        <v>20.193182511837733</v>
+      </c>
+      <c r="DY7" s="30">
+        <v>19.328014144267801</v>
+      </c>
+      <c r="DZ7" s="30">
+        <v>19.700550882155888</v>
+      </c>
+      <c r="EA7" s="30">
+        <v>22.893187102981923</v>
+      </c>
+      <c r="EB7" s="30">
+        <v>23.52824723362577</v>
+      </c>
+      <c r="EC7" s="30">
+        <v>17.141600389933068</v>
+      </c>
+      <c r="ED7" s="30">
+        <v>19.634505431259754</v>
+      </c>
+      <c r="EE7" s="30">
+        <v>19.069732145591168</v>
+      </c>
+      <c r="EF7" s="30">
+        <v>22.917752301545942</v>
+      </c>
+      <c r="EG7" s="30">
+        <v>24.527142004401167</v>
+      </c>
+      <c r="EH7" s="30">
+        <v>11.373913768312251</v>
+      </c>
+      <c r="EI7" s="30">
+        <v>19.31119749872202</v>
+      </c>
+      <c r="EJ7" s="30">
+        <v>22.0529202649792</v>
+      </c>
+      <c r="EK7" s="30">
+        <v>22.574778629694173</v>
+      </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8" spans="1:141">
       <c r="A8">
         <v>64</v>
       </c>
@@ -5887,6 +7418,186 @@
       </c>
       <c r="CC8">
         <v>100.78192875760207</v>
+      </c>
+      <c r="CD8" s="30">
+        <v>20.089774846594846</v>
+      </c>
+      <c r="CE8" s="30">
+        <v>22.489251386755559</v>
+      </c>
+      <c r="CF8" s="30">
+        <v>19.334624054172867</v>
+      </c>
+      <c r="CG8" s="30">
+        <v>17.86937987613609</v>
+      </c>
+      <c r="CH8" s="30">
+        <v>18.252492700930976</v>
+      </c>
+      <c r="CI8" s="30">
+        <v>18.137395421922115</v>
+      </c>
+      <c r="CJ8" s="30">
+        <v>18.486084102901501</v>
+      </c>
+      <c r="CK8" s="30">
+        <v>18.17907424424337</v>
+      </c>
+      <c r="CL8" s="30">
+        <v>24.631256021025656</v>
+      </c>
+      <c r="CM8" s="30">
+        <v>26.182739483632272</v>
+      </c>
+      <c r="CN8" s="30">
+        <v>20.926293174681867</v>
+      </c>
+      <c r="CO8" s="30">
+        <v>24.094099035970608</v>
+      </c>
+      <c r="CP8" s="30">
+        <v>20.200666944339066</v>
+      </c>
+      <c r="CQ8" s="30">
+        <v>16.803385897014532</v>
+      </c>
+      <c r="CR8" s="30">
+        <v>16.544609369885055</v>
+      </c>
+      <c r="CS8" s="30">
+        <v>21.204858039089522</v>
+      </c>
+      <c r="CT8" s="30">
+        <v>21.549468407425774</v>
+      </c>
+      <c r="CU8" s="30">
+        <v>18.950264364887246</v>
+      </c>
+      <c r="CV8" s="30">
+        <v>19.62312604292957</v>
+      </c>
+      <c r="CW8" s="30">
+        <v>25.651791882700937</v>
+      </c>
+      <c r="CX8" s="30">
+        <v>21.947866101742473</v>
+      </c>
+      <c r="CY8" s="30">
+        <v>18.90935413818065</v>
+      </c>
+      <c r="CZ8" s="30">
+        <v>19.127003801024625</v>
+      </c>
+      <c r="DA8" s="30">
+        <v>17.72943474752622</v>
+      </c>
+      <c r="DB8" s="30">
+        <v>21.600348063235025</v>
+      </c>
+      <c r="DC8" s="30">
+        <v>16.87649658928559</v>
+      </c>
+      <c r="DD8" s="30">
+        <v>17.541644453173959</v>
+      </c>
+      <c r="DE8" s="30">
+        <v>15.833668462961478</v>
+      </c>
+      <c r="DF8" s="30">
+        <v>20.144741915936759</v>
+      </c>
+      <c r="DG8" s="30">
+        <v>21.0888064296938</v>
+      </c>
+      <c r="DH8" s="30">
+        <v>18.024024600596437</v>
+      </c>
+      <c r="DI8" s="30">
+        <v>30.301966940622403</v>
+      </c>
+      <c r="DJ8" s="30">
+        <v>18.484071371812473</v>
+      </c>
+      <c r="DK8" s="30">
+        <v>15.843051097915192</v>
+      </c>
+      <c r="DL8" s="30">
+        <v>15.731551008370953</v>
+      </c>
+      <c r="DM8" s="30">
+        <v>17.992884507221618</v>
+      </c>
+      <c r="DN8" s="30">
+        <v>21.449961135764699</v>
+      </c>
+      <c r="DO8" s="30">
+        <v>7.0911441499676808</v>
+      </c>
+      <c r="DP8" s="30">
+        <v>22.083363432781912</v>
+      </c>
+      <c r="DQ8" s="30">
+        <v>29.908953374276297</v>
+      </c>
+      <c r="DR8" s="30">
+        <v>24.131428506612824</v>
+      </c>
+      <c r="DS8" s="30">
+        <v>22.57776103405461</v>
+      </c>
+      <c r="DT8" s="30">
+        <v>19.428711224796313</v>
+      </c>
+      <c r="DU8" s="30">
+        <v>17.343244990303816</v>
+      </c>
+      <c r="DV8" s="30">
+        <v>19.25973416167016</v>
+      </c>
+      <c r="DW8" s="30">
+        <v>20.821100612580771</v>
+      </c>
+      <c r="DX8" s="30">
+        <v>19.430139969601417</v>
+      </c>
+      <c r="DY8" s="30">
+        <v>19.605941781367068</v>
+      </c>
+      <c r="DZ8" s="30">
+        <v>19.791650537750954</v>
+      </c>
+      <c r="EA8" s="30">
+        <v>28.238064456551854</v>
+      </c>
+      <c r="EB8" s="30">
+        <v>23.851405042259628</v>
+      </c>
+      <c r="EC8" s="30">
+        <v>18.102602393247931</v>
+      </c>
+      <c r="ED8" s="30">
+        <v>20.607801547151833</v>
+      </c>
+      <c r="EE8" s="30">
+        <v>18.869984400038206</v>
+      </c>
+      <c r="EF8" s="30">
+        <v>21.305652501091608</v>
+      </c>
+      <c r="EG8" s="30">
+        <v>17.025579462554255</v>
+      </c>
+      <c r="EH8" s="30">
+        <v>16.321425991475838</v>
+      </c>
+      <c r="EI8" s="30">
+        <v>15.324292521979805</v>
+      </c>
+      <c r="EJ8" s="30">
+        <v>20.099078968262969</v>
+      </c>
+      <c r="EK8" s="30">
+        <v>20.953428277318505</v>
       </c>
     </row>
   </sheetData>
@@ -5895,7 +7606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC72C10-8C0F-431B-B52C-A2DE12BA8D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6686,14 +8397,14 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
       <c r="N10" t="s">
         <v>393</v>
       </c>
@@ -7423,14 +9134,14 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="O22" s="46" t="s">
+      <c r="O22" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="1:27">
       <c r="N23" t="s">
@@ -7657,11 +9368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF919604-0A44-4AE9-AF37-69D020797D99}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8250,17 +9961,77 @@
         <v>100</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>38422.829886229913</v>
+      </c>
+      <c r="C30">
+        <v>38422.829886229913</v>
+      </c>
+      <c r="D30">
+        <v>38422.829886229913</v>
+      </c>
+      <c r="E30">
+        <v>38422.829886229913</v>
+      </c>
+      <c r="F30">
+        <v>38422.829886229913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>363.94200000000001</v>
+      </c>
+      <c r="C31">
+        <v>363.94200000000001</v>
+      </c>
+      <c r="D31">
+        <v>363.94200000000001</v>
+      </c>
+      <c r="E31">
+        <v>363.94200000000001</v>
+      </c>
+      <c r="F31">
+        <v>363.94200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32">
+        <v>364.71100000000001</v>
+      </c>
+      <c r="C32">
+        <v>364.71100000000001</v>
+      </c>
+      <c r="D32">
+        <v>364.71100000000001</v>
+      </c>
+      <c r="E32">
+        <v>364.71100000000001</v>
+      </c>
+      <c r="F32">
+        <v>364.71100000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D87FD6-3B68-4163-B73C-853EFFAEB39B}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F29"/>
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8851,17 +10622,77 @@
         <v>99.578675085357816</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>39775.747682308851</v>
+      </c>
+      <c r="C30">
+        <v>42319.718168673142</v>
+      </c>
+      <c r="D30">
+        <v>38266.974161606071</v>
+      </c>
+      <c r="E30">
+        <v>39368.107426197465</v>
+      </c>
+      <c r="F30">
+        <v>38930.14624325827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>467.88900000000001</v>
+      </c>
+      <c r="C31">
+        <v>473.09399999999999</v>
+      </c>
+      <c r="D31">
+        <v>348.05099999999999</v>
+      </c>
+      <c r="E31">
+        <v>423.14</v>
+      </c>
+      <c r="F31">
+        <v>380.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32">
+        <v>367.38299999999998</v>
+      </c>
+      <c r="C32">
+        <v>398.07799999999997</v>
+      </c>
+      <c r="D32">
+        <v>374.00599999999997</v>
+      </c>
+      <c r="E32">
+        <v>364.36500000000001</v>
+      </c>
+      <c r="F32">
+        <v>370.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F98C45-ABE4-4590-8647-CEE830AE6845}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F29"/>
+      <selection activeCell="I27" sqref="I27:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9449,17 +11280,77 @@
         <v>99.578675085357816</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>37899.044840102601</v>
+      </c>
+      <c r="C30">
+        <v>42071.915750030523</v>
+      </c>
+      <c r="D30">
+        <v>38237.171393814519</v>
+      </c>
+      <c r="E30">
+        <v>36454.462968782602</v>
+      </c>
+      <c r="F30">
+        <v>38899.69570860736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>457.25099999999998</v>
+      </c>
+      <c r="C31">
+        <v>390.75200000000001</v>
+      </c>
+      <c r="D31">
+        <v>495.11900000000003</v>
+      </c>
+      <c r="E31">
+        <v>402.90499999999997</v>
+      </c>
+      <c r="F31">
+        <v>395.49700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32">
+        <v>358.19499999999999</v>
+      </c>
+      <c r="C32">
+        <v>400.80900000000003</v>
+      </c>
+      <c r="D32">
+        <v>350.04</v>
+      </c>
+      <c r="E32">
+        <v>315.09199999999998</v>
+      </c>
+      <c r="F32">
+        <v>375.04500000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F28E9D-2116-409A-A3CD-C222892DDB91}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F29"/>
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10047,22 +11938,82 @@
         <v>99.578675085357816</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>36493.183963382013</v>
+      </c>
+      <c r="C30">
+        <v>43509.677042763156</v>
+      </c>
+      <c r="D30">
+        <v>39159.744558089937</v>
+      </c>
+      <c r="E30">
+        <v>38100.534037557831</v>
+      </c>
+      <c r="F30">
+        <v>42809.677355071573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>393.78399999999999</v>
+      </c>
+      <c r="C31">
+        <v>393.61</v>
+      </c>
+      <c r="D31">
+        <v>425.423</v>
+      </c>
+      <c r="E31">
+        <v>440.09199999999998</v>
+      </c>
+      <c r="F31">
+        <v>536.17700000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32">
+        <v>347.71600000000001</v>
+      </c>
+      <c r="C32">
+        <v>382.54</v>
+      </c>
+      <c r="D32">
+        <v>375.52300000000002</v>
+      </c>
+      <c r="E32">
+        <v>365.83100000000002</v>
+      </c>
+      <c r="F32">
+        <v>406.49400000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492A55D2-EF27-4F63-8D0F-C802D9B99B04}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10507,42 +12458,202 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>472</v>
-      </c>
-      <c r="B23" s="30">
-        <v>99.431520129388872</v>
-      </c>
-      <c r="C23" s="30">
-        <v>101.73445805657661</v>
-      </c>
-      <c r="D23" s="30">
-        <v>99.76012957386169</v>
-      </c>
-      <c r="E23" s="30">
-        <v>99.641111536704017</v>
-      </c>
-      <c r="F23" s="30">
-        <v>99.432780703468822</v>
+        <v>387</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="30">
+        <v>99.431520129388872</v>
+      </c>
+      <c r="C28" s="30">
+        <v>101.73445805657661</v>
+      </c>
+      <c r="D28" s="30">
+        <v>99.76012957386169</v>
+      </c>
+      <c r="E28" s="30">
+        <v>99.641111536704017</v>
+      </c>
+      <c r="F28" s="30">
+        <v>99.432780703468822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>473</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B29" s="30">
         <v>97.453907656933225</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C29" s="30">
         <v>103.78302630941891</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D29" s="30">
         <v>97.492997782749356</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E29" s="30">
         <v>101.6913931655407</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F29" s="30">
         <v>99.578675085357816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>36102.581143630487</v>
+      </c>
+      <c r="C30">
+        <v>45552.972350416763</v>
+      </c>
+      <c r="D30">
+        <v>42019.533886683108</v>
+      </c>
+      <c r="E30">
+        <v>38398.908858826842</v>
+      </c>
+      <c r="F30">
+        <v>40164.409240284935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31">
+        <v>370.23200000000003</v>
+      </c>
+      <c r="C31">
+        <v>430.55599999999998</v>
+      </c>
+      <c r="D31">
+        <v>426.995</v>
+      </c>
+      <c r="E31">
+        <v>426.84399999999999</v>
+      </c>
+      <c r="F31">
+        <v>388.31400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32">
+        <v>343.13</v>
+      </c>
+      <c r="C32">
+        <v>433.21</v>
+      </c>
+      <c r="D32">
+        <v>372.42899999999997</v>
+      </c>
+      <c r="E32">
+        <v>382.13499999999999</v>
+      </c>
+      <c r="F32">
+        <v>373.34800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10551,11 +12662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC37F0B2-B799-49DB-B48A-447C78F57D20}">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10564,7 +12675,7 @@
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1">
         <v>60</v>
       </c>
@@ -10608,7 +12719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>297</v>
       </c>
@@ -10652,7 +12763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>298</v>
       </c>
@@ -10696,7 +12807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="7" t="s">
         <v>299</v>
       </c>
@@ -10740,7 +12851,7 @@
         <v>59.75</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="7" t="s">
         <v>300</v>
       </c>
@@ -10784,7 +12895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
         <v>301</v>
       </c>
@@ -10828,7 +12939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
         <v>297</v>
       </c>
@@ -10884,7 +12995,7 @@
         <v>97.306689834926146</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="7" t="s">
         <v>298</v>
       </c>
@@ -10940,7 +13051,7 @@
         <v>100.78192875760207</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>299</v>
       </c>
@@ -10996,7 +13107,7 @@
         <v>103.82276281494353</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
         <v>300</v>
       </c>
@@ -11052,7 +13163,7 @@
         <v>97.306689834926146</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
         <v>301</v>
       </c>
@@ -11108,13 +13219,863 @@
         <v>100.78192875760207</v>
       </c>
     </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>75727</v>
+      </c>
+      <c r="C16">
+        <v>33529</v>
+      </c>
+      <c r="D16">
+        <v>20672</v>
+      </c>
+      <c r="E16">
+        <v>44434</v>
+      </c>
+      <c r="F16">
+        <v>53014</v>
+      </c>
+      <c r="G16">
+        <v>136666</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16">
+        <v>58203</v>
+      </c>
+      <c r="K16">
+        <v>32814</v>
+      </c>
+      <c r="L16">
+        <v>20470</v>
+      </c>
+      <c r="M16">
+        <v>40527</v>
+      </c>
+      <c r="N16">
+        <v>55477</v>
+      </c>
+      <c r="O16">
+        <v>135639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17">
+        <v>69682</v>
+      </c>
+      <c r="C17">
+        <v>27103</v>
+      </c>
+      <c r="D17">
+        <v>26335</v>
+      </c>
+      <c r="E17">
+        <v>65106</v>
+      </c>
+      <c r="F17">
+        <v>60780</v>
+      </c>
+      <c r="G17">
+        <v>181550</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17">
+        <v>69266</v>
+      </c>
+      <c r="K17">
+        <v>7679</v>
+      </c>
+      <c r="L17">
+        <v>24456</v>
+      </c>
+      <c r="M17">
+        <v>76508</v>
+      </c>
+      <c r="N17">
+        <v>85099</v>
+      </c>
+      <c r="O17">
+        <v>170202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18">
+        <v>76145</v>
+      </c>
+      <c r="C18">
+        <v>25052</v>
+      </c>
+      <c r="D18">
+        <v>17689</v>
+      </c>
+      <c r="E18">
+        <v>52728</v>
+      </c>
+      <c r="F18">
+        <v>62590</v>
+      </c>
+      <c r="G18">
+        <v>142791</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18">
+        <v>62739</v>
+      </c>
+      <c r="K18">
+        <v>18781</v>
+      </c>
+      <c r="L18">
+        <v>21329</v>
+      </c>
+      <c r="M18">
+        <v>53261</v>
+      </c>
+      <c r="N18">
+        <v>68520</v>
+      </c>
+      <c r="O18">
+        <v>147799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19">
+        <v>73968</v>
+      </c>
+      <c r="C19">
+        <v>38244</v>
+      </c>
+      <c r="D19">
+        <v>23466</v>
+      </c>
+      <c r="E19">
+        <v>47020</v>
+      </c>
+      <c r="F19">
+        <v>55554</v>
+      </c>
+      <c r="G19">
+        <v>133592</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19">
+        <v>63911</v>
+      </c>
+      <c r="K19">
+        <v>30579</v>
+      </c>
+      <c r="L19">
+        <v>26414</v>
+      </c>
+      <c r="M19">
+        <v>46307</v>
+      </c>
+      <c r="N19">
+        <v>72673</v>
+      </c>
+      <c r="O19">
+        <v>142251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20">
+        <v>81421</v>
+      </c>
+      <c r="C20">
+        <v>25161</v>
+      </c>
+      <c r="D20">
+        <v>18755</v>
+      </c>
+      <c r="E20">
+        <v>39372</v>
+      </c>
+      <c r="F20">
+        <v>58510</v>
+      </c>
+      <c r="G20">
+        <v>158905</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20">
+        <v>68800</v>
+      </c>
+      <c r="K20">
+        <v>18437</v>
+      </c>
+      <c r="L20">
+        <v>18075</v>
+      </c>
+      <c r="M20">
+        <v>39200</v>
+      </c>
+      <c r="N20">
+        <v>70879</v>
+      </c>
+      <c r="O20">
+        <v>157957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="7">
+        <f>B16/AVERAGE(B$16:B$20)*100</f>
+        <v>100.44887423297422</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:G22" si="7">C16/AVERAGE(C$16:C$20)*100</f>
+        <v>112.44625693377782</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="7"/>
+        <v>96.673120270864317</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="7"/>
+        <v>89.346899380680441</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>91.262463504654875</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="7"/>
+        <v>90.686977109610581</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J22" s="8">
+        <f>J16/AVERAGE(J$16:J$20)*100</f>
+        <v>90.120123002982169</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" ref="K22:O22" si="8">K16/AVERAGE(K$16:K$20)*100</f>
+        <v>151.50983470311201</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="8"/>
+        <v>92.420356859062352</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="8"/>
+        <v>79.215255489575966</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="8"/>
+        <v>78.657755041854756</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="8"/>
+        <v>89.964422536108074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" ref="B23:G23" si="9">B17/AVERAGE(B$16:B$20)*100</f>
+        <v>92.430420514507489</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="9"/>
+        <v>90.895371221216863</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="9"/>
+        <v>123.15628010512827</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="9"/>
+        <v>130.91369741816135</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="9"/>
+        <v>104.63146587340934</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="9"/>
+        <v>120.47049517985306</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" ref="J23:O23" si="10">J17/AVERAGE(J$16:J$20)*100</f>
+        <v>107.24980567882348</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="10"/>
+        <v>35.455720749838399</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="10"/>
+        <v>110.41681716390957</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="10"/>
+        <v>149.54476687138148</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="10"/>
+        <v>120.65714253306412</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="10"/>
+        <v>112.88880517027305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24:G24" si="11">B18/AVERAGE(B$16:B$20)*100</f>
+        <v>101.00333472169531</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="11"/>
+        <v>84.01692948507268</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="11"/>
+        <v>82.723046849425259</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="11"/>
+        <v>106.02429019544759</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="11"/>
+        <v>107.74734203712886</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="11"/>
+        <v>94.751321824436246</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" ref="J24:O24" si="12">J18/AVERAGE(J$16:J$20)*100</f>
+        <v>97.143556123981554</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="12"/>
+        <v>86.716224951519067</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="12"/>
+        <v>96.298670808350792</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="12"/>
+        <v>104.10550306290386</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="12"/>
+        <v>97.150699848007065</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="12"/>
+        <v>98.029708906835324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" ref="B25:G25" si="13">B19/AVERAGE(B$16:B$20)*100</f>
+        <v>98.115630214647837</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="13"/>
+        <v>128.2589594135047</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="13"/>
+        <v>109.73933050871236</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="13"/>
+        <v>94.54677069090323</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="13"/>
+        <v>95.635019005123127</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="13"/>
+        <v>88.647173737631121</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" ref="J25:O25" si="14">J19/AVERAGE(J$16:J$20)*100</f>
+        <v>98.958252688754754</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="14"/>
+        <v>141.19032228275924</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="14"/>
+        <v>119.25702521129813</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="14"/>
+        <v>90.513011966239645</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="14"/>
+        <v>103.03900773575916</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="14"/>
+        <v>94.349922000191015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" ref="B26:G26" si="15">B20/AVERAGE(B$16:B$20)*100</f>
+        <v>108.00174031617512</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="15"/>
+        <v>84.38248294642797</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="15"/>
+        <v>87.708222265869779</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="15"/>
+        <v>79.168342314807376</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="15"/>
+        <v>100.7237095796838</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="15"/>
+        <v>105.44403214846902</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" ref="J26:O26" si="16">J20/AVERAGE(J$16:J$20)*100</f>
+        <v>106.52826250545802</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="16"/>
+        <v>85.127897312771267</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="16"/>
+        <v>81.607129957379186</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="16"/>
+        <v>76.621462609899027</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="16"/>
+        <v>100.49539484131485</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="16"/>
+        <v>104.76714138659251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="7">
+        <f>B22/SUM(B$22:B$26)*100</f>
+        <v>20.089774846594846</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:G28" si="17">C22/SUM(C$22:C$26)*100</f>
+        <v>22.489251386755559</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="17"/>
+        <v>19.334624054172867</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="17"/>
+        <v>17.86937987613609</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="17"/>
+        <v>18.252492700930976</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="17"/>
+        <v>18.137395421922115</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" s="7">
+        <f>J22/SUM(J$22:J$26)*100</f>
+        <v>18.024024600596437</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" ref="K28:O28" si="18">K22/SUM(K$22:K$26)*100</f>
+        <v>30.301966940622403</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="18"/>
+        <v>18.484071371812473</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="18"/>
+        <v>15.843051097915192</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="18"/>
+        <v>15.731551008370953</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="18"/>
+        <v>17.992884507221618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="7">
+        <f t="shared" ref="B29:G29" si="19">B23/SUM(B$22:B$26)*100</f>
+        <v>18.486084102901501</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="19"/>
+        <v>18.17907424424337</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="19"/>
+        <v>24.631256021025656</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="19"/>
+        <v>26.182739483632272</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="19"/>
+        <v>20.926293174681867</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="19"/>
+        <v>24.094099035970608</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" ref="J29:O29" si="20">J23/SUM(J$22:J$26)*100</f>
+        <v>21.449961135764699</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="20"/>
+        <v>7.0911441499676808</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="20"/>
+        <v>22.083363432781912</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="20"/>
+        <v>29.908953374276297</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="20"/>
+        <v>24.131428506612824</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="20"/>
+        <v>22.57776103405461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="7">
+        <f t="shared" ref="B30:G30" si="21">B24/SUM(B$22:B$26)*100</f>
+        <v>20.200666944339066</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="21"/>
+        <v>16.803385897014532</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="21"/>
+        <v>16.544609369885055</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="21"/>
+        <v>21.204858039089522</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="21"/>
+        <v>21.549468407425774</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="21"/>
+        <v>18.950264364887246</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:O30" si="22">J24/SUM(J$22:J$26)*100</f>
+        <v>19.428711224796313</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="22"/>
+        <v>17.343244990303816</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="22"/>
+        <v>19.25973416167016</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="22"/>
+        <v>20.821100612580771</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="22"/>
+        <v>19.430139969601417</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="22"/>
+        <v>19.605941781367068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" ref="B31:G31" si="23">B25/SUM(B$22:B$26)*100</f>
+        <v>19.62312604292957</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="23"/>
+        <v>25.651791882700937</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="23"/>
+        <v>21.947866101742473</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="23"/>
+        <v>18.90935413818065</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="23"/>
+        <v>19.127003801024625</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="23"/>
+        <v>17.72943474752622</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" ref="J31:O31" si="24">J25/SUM(J$22:J$26)*100</f>
+        <v>19.791650537750954</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="24"/>
+        <v>28.238064456551854</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="24"/>
+        <v>23.851405042259628</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="24"/>
+        <v>18.102602393247931</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="24"/>
+        <v>20.607801547151833</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="24"/>
+        <v>18.869984400038206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="7">
+        <f t="shared" ref="B32:G32" si="25">B26/SUM(B$22:B$26)*100</f>
+        <v>21.600348063235025</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="25"/>
+        <v>16.87649658928559</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="25"/>
+        <v>17.541644453173959</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="25"/>
+        <v>15.833668462961478</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="25"/>
+        <v>20.144741915936759</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="25"/>
+        <v>21.0888064296938</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" ref="J32:O32" si="26">J26/SUM(J$22:J$26)*100</f>
+        <v>21.305652501091608</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="26"/>
+        <v>17.025579462554255</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="26"/>
+        <v>16.321425991475838</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="26"/>
+        <v>15.324292521979805</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="26"/>
+        <v>20.099078968262969</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="26"/>
+        <v>20.953428277318505</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:O14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840BAE22-A7CB-4484-A041-155B62BB3458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55796,7 +58757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38B3744-DD2F-4542-AB4D-5286FC8EA77E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55809,28 +58770,28 @@
     <col min="11" max="11" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="25"/>
       <c r="B1" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="39"/>
       <c r="K1" s="21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11">
       <c r="A2" s="24" t="s">
         <v>398</v>
       </c>
@@ -55841,19 +58802,19 @@
       <c r="D2" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="39"/>
       <c r="K2" s="22" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75">
+    <row r="3" spans="1:11" ht="18">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -55864,19 +58825,19 @@
         <v>421</v>
       </c>
       <c r="D3" s="20"/>
-      <c r="E3" s="36">
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="34">
+      <c r="F3" s="41"/>
+      <c r="G3" s="32">
         <v>4</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="33"/>
       <c r="K3" s="22" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -55885,19 +58846,19 @@
       <c r="D4" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="42">
         <v>5</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="42">
+      <c r="F4" s="43"/>
+      <c r="G4" s="36">
         <v>5</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="37"/>
       <c r="K4" s="22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -55908,19 +58869,19 @@
         <v>420</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="40">
+      <c r="E5" s="44">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="36">
+      <c r="F5" s="45"/>
+      <c r="G5" s="40">
         <v>1</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="41"/>
       <c r="K5" s="22" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -55929,14 +58890,14 @@
       <c r="D6" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <v>2</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34">
+      <c r="F6" s="33"/>
+      <c r="G6" s="32">
         <v>3</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="33"/>
       <c r="K6" s="22" t="s">
         <v>413</v>
       </c>
@@ -55954,38 +58915,38 @@
       <c r="D7" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34">
+      <c r="F7" s="33"/>
+      <c r="G7" s="32">
         <v>2</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:11" s="23" customFormat="1"/>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="39"/>
       <c r="K9" s="22" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75">
+    <row r="10" spans="1:11" ht="18">
       <c r="A10" s="24" t="s">
         <v>398</v>
       </c>
@@ -55996,19 +58957,19 @@
       <c r="D10" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="39"/>
+      <c r="G10" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="39"/>
       <c r="K10" s="22" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11">
       <c r="A11" s="24">
         <v>1</v>
       </c>
@@ -56017,19 +58978,19 @@
         <v>418</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>4</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34">
+      <c r="F11" s="33"/>
+      <c r="G11" s="32">
         <v>2</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="33"/>
       <c r="K11" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11">
       <c r="A12" s="24">
         <v>2</v>
       </c>
@@ -56040,19 +59001,19 @@
       <c r="D12" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="42">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36">
         <v>5</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="37"/>
       <c r="K12" s="22" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11">
       <c r="A13" s="24">
         <v>3</v>
       </c>
@@ -56063,14 +59024,14 @@
       <c r="D13" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <v>5</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="34">
+      <c r="F13" s="37"/>
+      <c r="G13" s="32">
         <v>4</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="33"/>
       <c r="K13" s="22" t="s">
         <v>417</v>
       </c>
@@ -56086,14 +59047,14 @@
       <c r="D14" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <v>2</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="44">
+      <c r="F14" s="33"/>
+      <c r="G14" s="34">
         <v>1</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="24">
@@ -56104,17 +59065,37 @@
         <v>406</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>3</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34">
+      <c r="F15" s="33"/>
+      <c r="G15" s="32">
         <v>3</v>
       </c>
-      <c r="H15" s="35"/>
+      <c r="H15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E14:F14"/>
@@ -56125,26 +59106,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
